--- a/checklist_booking.xlsx
+++ b/checklist_booking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Build</t>
   </si>
@@ -64,7 +64,7 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Clicking the Booking.com logo takes to the Homepage.</t>
+    <t>Clicking on the Booking.com logo is redirected  to the Homepage</t>
   </si>
   <si>
     <t>When put the cursor on the  "Currency" button, a tooltip is displayed</t>
@@ -79,10 +79,10 @@
     <t xml:space="preserve">When click on  the  "Language" button, the modal windows is  displayed </t>
   </si>
   <si>
-    <t>The "Flight" button leads to the flight search page.</t>
-  </si>
-  <si>
-    <t>The "Car rentals" button leads to the Car hire page.</t>
+    <t>The "Flight" button leads to the flight search page</t>
+  </si>
+  <si>
+    <t>The "Car rentals" button leads to the Car hire page</t>
   </si>
   <si>
     <t>The "Attractions" button leads to the page "Find and book a great experience"</t>
@@ -109,7 +109,7 @@
     <t>Entering the correct email</t>
   </si>
   <si>
-    <t>Clickin on the "Continue with email" leads to the page "Create password"</t>
+    <t>Clicking on the "Continue with email" leads to the page "Create password"</t>
   </si>
   <si>
     <t>Enter the correct password</t>
@@ -118,7 +118,7 @@
     <t>Enter the correct confirm password</t>
   </si>
   <si>
-    <t xml:space="preserve">Clickin on the"Create account" leads to the creation account </t>
+    <t xml:space="preserve">Clicking on the"Create account" leads to the creation account </t>
   </si>
   <si>
     <t>Displays an error message when entering the incorrect email</t>
@@ -153,9 +153,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -198,12 +198,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,46 +213,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +244,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -296,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -303,24 +296,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,13 +360,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,169 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,17 +606,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,6 +637,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,22 +689,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,127 +729,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,10 +1236,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1550,41 +1550,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="1:3">
+    <row r="30" ht="45" spans="1:3">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" ht="45" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="19" t="s">
+    <row r="31" ht="27" customHeight="1" spans="1:3">
+      <c r="A31" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" ht="45" spans="1:3">
+      <c r="A32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="33" ht="45" spans="1:3">
       <c r="A33" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>15</v>
@@ -1594,45 +1594,37 @@
       <c r="A34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>40</v>
+      <c r="B34" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" ht="45" spans="1:3">
+    <row r="35" ht="60" spans="1:3">
       <c r="A35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" ht="60" spans="1:3">
+    <row r="36" ht="30" spans="1:3">
       <c r="A36" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>42</v>
+      <c r="B36" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" ht="30" spans="1:3">
-      <c r="A37" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>15</v>
-      </c>
+    <row r="37" spans="2:2">
+      <c r="B37" s="20"/>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="20"/>
@@ -1642,9 +1634,6 @@
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="20"/>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1655,7 +1644,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="https://www.booking.com/"/>
